--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Plxnd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>39.3571798890328</v>
+        <v>0.317833</v>
       </c>
       <c r="H2">
-        <v>39.3571798890328</v>
+        <v>0.953499</v>
       </c>
       <c r="I2">
-        <v>0.9656846568466421</v>
+        <v>0.00735622594276287</v>
       </c>
       <c r="J2">
-        <v>0.9656846568466421</v>
+        <v>0.007356225942762871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.9566754799613</v>
+        <v>92.59233966666666</v>
       </c>
       <c r="N2">
-        <v>50.9566754799613</v>
+        <v>277.777019</v>
       </c>
       <c r="O2">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631132</v>
       </c>
       <c r="P2">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631133</v>
       </c>
       <c r="Q2">
-        <v>2005.511043411904</v>
+        <v>29.42890109327566</v>
       </c>
       <c r="R2">
-        <v>2005.511043411904</v>
+        <v>264.860109839481</v>
       </c>
       <c r="S2">
-        <v>0.3908348442614582</v>
+        <v>0.004020482965328267</v>
       </c>
       <c r="T2">
-        <v>0.3908348442614582</v>
+        <v>0.004020482965328268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>39.3571798890328</v>
+        <v>0.317833</v>
       </c>
       <c r="H3">
-        <v>39.3571798890328</v>
+        <v>0.953499</v>
       </c>
       <c r="I3">
-        <v>0.9656846568466421</v>
+        <v>0.00735622594276287</v>
       </c>
       <c r="J3">
-        <v>0.9656846568466421</v>
+        <v>0.007356225942762871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.0349620081423</v>
+        <v>15.14173</v>
       </c>
       <c r="N3">
-        <v>15.0349620081423</v>
+        <v>45.42519</v>
       </c>
       <c r="O3">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="P3">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="Q3">
-        <v>591.7337043792303</v>
+        <v>4.81254147109</v>
       </c>
       <c r="R3">
-        <v>591.7337043792303</v>
+        <v>43.31287323981</v>
       </c>
       <c r="S3">
-        <v>0.115317315731087</v>
+        <v>0.0006574741252868005</v>
       </c>
       <c r="T3">
-        <v>0.115317315731087</v>
+        <v>0.0006574741252868005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>39.3571798890328</v>
+        <v>0.317833</v>
       </c>
       <c r="H4">
-        <v>39.3571798890328</v>
+        <v>0.953499</v>
       </c>
       <c r="I4">
-        <v>0.9656846568466421</v>
+        <v>0.00735622594276287</v>
       </c>
       <c r="J4">
-        <v>0.9656846568466421</v>
+        <v>0.007356225942762871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.5175987540045</v>
+        <v>28.17812733333333</v>
       </c>
       <c r="N4">
-        <v>26.5175987540045</v>
+        <v>84.53438199999999</v>
       </c>
       <c r="O4">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="P4">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="Q4">
-        <v>1043.657904386547</v>
+        <v>8.955938744735333</v>
       </c>
       <c r="R4">
-        <v>1043.657904386547</v>
+        <v>80.603448702618</v>
       </c>
       <c r="S4">
-        <v>0.203388495846532</v>
+        <v>0.001223531896335717</v>
       </c>
       <c r="T4">
-        <v>0.203388495846532</v>
+        <v>0.001223531896335717</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>39.3571798890328</v>
+        <v>0.317833</v>
       </c>
       <c r="H5">
-        <v>39.3571798890328</v>
+        <v>0.953499</v>
       </c>
       <c r="I5">
-        <v>0.9656846568466421</v>
+        <v>0.00735622594276287</v>
       </c>
       <c r="J5">
-        <v>0.9656846568466421</v>
+        <v>0.007356225942762871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.3958113692385</v>
+        <v>33.50281533333334</v>
       </c>
       <c r="N5">
-        <v>33.3958113692385</v>
+        <v>100.508446</v>
       </c>
       <c r="O5">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577406</v>
       </c>
       <c r="P5">
-        <v>0.2652460088202918</v>
+        <v>0.1977558828577405</v>
       </c>
       <c r="Q5">
-        <v>1314.364955599327</v>
+        <v>10.64830030583933</v>
       </c>
       <c r="R5">
-        <v>1314.364955599327</v>
+        <v>95.83470275255401</v>
       </c>
       <c r="S5">
-        <v>0.2561440010075649</v>
+        <v>0.001454736955812086</v>
       </c>
       <c r="T5">
-        <v>0.2561440010075649</v>
+        <v>0.001454736955812086</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.39854674490813</v>
+        <v>40.98656233333333</v>
       </c>
       <c r="H6">
-        <v>1.39854674490813</v>
+        <v>122.959687</v>
       </c>
       <c r="I6">
-        <v>0.03431534315335787</v>
+        <v>0.9486315553801341</v>
       </c>
       <c r="J6">
-        <v>0.03431534315335787</v>
+        <v>0.9486315553801342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.9566754799613</v>
+        <v>92.59233966666666</v>
       </c>
       <c r="N6">
-        <v>50.9566754799613</v>
+        <v>277.777019</v>
       </c>
       <c r="O6">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631132</v>
       </c>
       <c r="P6">
-        <v>0.4047230547678938</v>
+        <v>0.5465415277631133</v>
       </c>
       <c r="Q6">
-        <v>71.2652926238398</v>
+        <v>3795.041701337006</v>
       </c>
       <c r="R6">
-        <v>71.2652926238398</v>
+        <v>34155.37531203305</v>
       </c>
       <c r="S6">
-        <v>0.01388821050643553</v>
+        <v>0.5184665395617568</v>
       </c>
       <c r="T6">
-        <v>0.01388821050643553</v>
+        <v>0.5184665395617569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.39854674490813</v>
+        <v>40.98656233333333</v>
       </c>
       <c r="H7">
-        <v>1.39854674490813</v>
+        <v>122.959687</v>
       </c>
       <c r="I7">
-        <v>0.03431534315335787</v>
+        <v>0.9486315553801341</v>
       </c>
       <c r="J7">
-        <v>0.03431534315335787</v>
+        <v>0.9486315553801342</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.0349620081423</v>
+        <v>15.14173</v>
       </c>
       <c r="N7">
-        <v>15.0349620081423</v>
+        <v>45.42519</v>
       </c>
       <c r="O7">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="P7">
-        <v>0.1194150853630061</v>
+        <v>0.08937655401050183</v>
       </c>
       <c r="Q7">
-        <v>21.02709717630481</v>
+        <v>620.6074604795033</v>
       </c>
       <c r="R7">
-        <v>21.02709717630481</v>
+        <v>5585.46714431553</v>
       </c>
       <c r="S7">
-        <v>0.004097769631919077</v>
+        <v>0.08478541944549892</v>
       </c>
       <c r="T7">
-        <v>0.004097769631919077</v>
+        <v>0.08478541944549893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.39854674490813</v>
+        <v>40.98656233333333</v>
       </c>
       <c r="H8">
-        <v>1.39854674490813</v>
+        <v>122.959687</v>
       </c>
       <c r="I8">
-        <v>0.03431534315335787</v>
+        <v>0.9486315553801341</v>
       </c>
       <c r="J8">
-        <v>0.03431534315335787</v>
+        <v>0.9486315553801342</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.5175987540045</v>
+        <v>28.17812733333333</v>
       </c>
       <c r="N8">
-        <v>26.5175987540045</v>
+        <v>84.53438199999999</v>
       </c>
       <c r="O8">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="P8">
-        <v>0.2106158510488084</v>
+        <v>0.1663260353686444</v>
       </c>
       <c r="Q8">
-        <v>37.08610142019288</v>
+        <v>1154.92457238427</v>
       </c>
       <c r="R8">
-        <v>37.08610142019288</v>
+        <v>10394.32115145843</v>
       </c>
       <c r="S8">
-        <v>0.007227355202276368</v>
+        <v>0.1577821256319684</v>
       </c>
       <c r="T8">
-        <v>0.007227355202276368</v>
+        <v>0.1577821256319684</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>40.98656233333333</v>
+      </c>
+      <c r="H9">
+        <v>122.959687</v>
+      </c>
+      <c r="I9">
+        <v>0.9486315553801341</v>
+      </c>
+      <c r="J9">
+        <v>0.9486315553801342</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>33.50281533333334</v>
+      </c>
+      <c r="N9">
+        <v>100.508446</v>
+      </c>
+      <c r="O9">
+        <v>0.1977558828577406</v>
+      </c>
+      <c r="P9">
+        <v>0.1977558828577405</v>
+      </c>
+      <c r="Q9">
+        <v>1373.165229001823</v>
+      </c>
+      <c r="R9">
+        <v>12358.4870610164</v>
+      </c>
+      <c r="S9">
+        <v>0.18759747074091</v>
+      </c>
+      <c r="T9">
+        <v>0.18759747074091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.05819</v>
+      </c>
+      <c r="I10">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="J10">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>92.59233966666666</v>
+      </c>
+      <c r="N10">
+        <v>277.777019</v>
+      </c>
+      <c r="O10">
+        <v>0.5465415277631132</v>
+      </c>
+      <c r="P10">
+        <v>0.5465415277631133</v>
+      </c>
+      <c r="Q10">
+        <v>1.795982748401111</v>
+      </c>
+      <c r="R10">
+        <v>16.16384473561</v>
+      </c>
+      <c r="S10">
+        <v>0.0002453614568577963</v>
+      </c>
+      <c r="T10">
+        <v>0.0002453614568577963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.05819</v>
+      </c>
+      <c r="I11">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="J11">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.14173</v>
+      </c>
+      <c r="N11">
+        <v>45.42519</v>
+      </c>
+      <c r="O11">
+        <v>0.08937655401050183</v>
+      </c>
+      <c r="P11">
+        <v>0.08937655401050183</v>
+      </c>
+      <c r="Q11">
+        <v>0.2936990895666667</v>
+      </c>
+      <c r="R11">
+        <v>2.6432918061</v>
+      </c>
+      <c r="S11">
+        <v>4.012423647055626E-05</v>
+      </c>
+      <c r="T11">
+        <v>4.012423647055626E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.05819</v>
+      </c>
+      <c r="I12">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="J12">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.17812733333333</v>
+      </c>
+      <c r="N12">
+        <v>84.53438199999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1663260353686444</v>
+      </c>
+      <c r="P12">
+        <v>0.1663260353686444</v>
+      </c>
+      <c r="Q12">
+        <v>0.5465617431755555</v>
+      </c>
+      <c r="R12">
+        <v>4.919055688579999</v>
+      </c>
+      <c r="S12">
+        <v>7.466952880682137E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.466952880682137E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.05819</v>
+      </c>
+      <c r="I13">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="J13">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.50281533333334</v>
+      </c>
+      <c r="N13">
+        <v>100.508446</v>
+      </c>
+      <c r="O13">
+        <v>0.1977558828577406</v>
+      </c>
+      <c r="P13">
+        <v>0.1977558828577405</v>
+      </c>
+      <c r="Q13">
+        <v>0.6498429414155557</v>
+      </c>
+      <c r="R13">
+        <v>5.84858647274</v>
+      </c>
+      <c r="S13">
+        <v>8.877947796348534E-05</v>
+      </c>
+      <c r="T13">
+        <v>8.877947796348533E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.882194666666667</v>
+      </c>
+      <c r="H14">
+        <v>5.646584000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="J14">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>92.59233966666666</v>
+      </c>
+      <c r="N14">
+        <v>277.777019</v>
+      </c>
+      <c r="O14">
+        <v>0.5465415277631132</v>
+      </c>
+      <c r="P14">
+        <v>0.5465415277631133</v>
+      </c>
+      <c r="Q14">
+        <v>174.2768078947884</v>
+      </c>
+      <c r="R14">
+        <v>1568.491271053096</v>
+      </c>
+      <c r="S14">
+        <v>0.02380914377917035</v>
+      </c>
+      <c r="T14">
+        <v>0.02380914377917035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.39854674490813</v>
-      </c>
-      <c r="H9">
-        <v>1.39854674490813</v>
-      </c>
-      <c r="I9">
-        <v>0.03431534315335787</v>
-      </c>
-      <c r="J9">
-        <v>0.03431534315335787</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>33.3958113692385</v>
-      </c>
-      <c r="N9">
-        <v>33.3958113692385</v>
-      </c>
-      <c r="O9">
-        <v>0.2652460088202918</v>
-      </c>
-      <c r="P9">
-        <v>0.2652460088202918</v>
-      </c>
-      <c r="Q9">
-        <v>46.70560328401442</v>
-      </c>
-      <c r="R9">
-        <v>46.70560328401442</v>
-      </c>
-      <c r="S9">
-        <v>0.009102007812726902</v>
-      </c>
-      <c r="T9">
-        <v>0.009102007812726902</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.882194666666667</v>
+      </c>
+      <c r="H15">
+        <v>5.646584000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="J15">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>15.14173</v>
+      </c>
+      <c r="N15">
+        <v>45.42519</v>
+      </c>
+      <c r="O15">
+        <v>0.08937655401050183</v>
+      </c>
+      <c r="P15">
+        <v>0.08937655401050183</v>
+      </c>
+      <c r="Q15">
+        <v>28.49968345010667</v>
+      </c>
+      <c r="R15">
+        <v>256.49715105096</v>
+      </c>
+      <c r="S15">
+        <v>0.003893536203245565</v>
+      </c>
+      <c r="T15">
+        <v>0.003893536203245565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.882194666666667</v>
+      </c>
+      <c r="H16">
+        <v>5.646584000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="J16">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>28.17812733333333</v>
+      </c>
+      <c r="N16">
+        <v>84.53438199999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1663260353686444</v>
+      </c>
+      <c r="P16">
+        <v>0.1663260353686444</v>
+      </c>
+      <c r="Q16">
+        <v>53.03672098345422</v>
+      </c>
+      <c r="R16">
+        <v>477.330488851088</v>
+      </c>
+      <c r="S16">
+        <v>0.00724570831153354</v>
+      </c>
+      <c r="T16">
+        <v>0.00724570831153354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.882194666666667</v>
+      </c>
+      <c r="H17">
+        <v>5.646584000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="J17">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.50281533333334</v>
+      </c>
+      <c r="N17">
+        <v>100.508446</v>
+      </c>
+      <c r="O17">
+        <v>0.1977558828577406</v>
+      </c>
+      <c r="P17">
+        <v>0.1977558828577405</v>
+      </c>
+      <c r="Q17">
+        <v>63.05882033871824</v>
+      </c>
+      <c r="R17">
+        <v>567.5293830484641</v>
+      </c>
+      <c r="S17">
+        <v>0.008614895683054975</v>
+      </c>
+      <c r="T17">
+        <v>0.008614895683054973</v>
       </c>
     </row>
   </sheetData>
